--- a/Aplicacion_Sistema_Experto/Sitio_WEB/static/Costos/Hornilla.xlsx
+++ b/Aplicacion_Sistema_Experto/Sitio_WEB/static/Costos/Hornilla.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\GitHub\Sistema_Experto\Aplicacion_Sistema_Experto\Sitio_WEB\static\Costos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D82794E4-713E-4AAA-9417-4888A798BE59}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DCE26D3-B526-44D1-9279-30C3028370E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AF386C0A-E7F8-45A3-984F-57BF99206109}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>semiesférica</t>
   </si>
@@ -74,9 +74,6 @@
     <t>tanque recibidor</t>
   </si>
   <si>
-    <t>Pegante</t>
-  </si>
-  <si>
     <t>Sección de parrilla</t>
   </si>
   <si>
@@ -104,9 +101,6 @@
     <t>Empaque de silicona</t>
   </si>
   <si>
-    <t>Entrada de la hornilla</t>
-  </si>
-  <si>
     <t>Base molino</t>
   </si>
   <si>
@@ -114,6 +108,15 @@
   </si>
   <si>
     <t>Accesorios paila melotera</t>
+  </si>
+  <si>
+    <t>Pegante bulto</t>
+  </si>
+  <si>
+    <t>Válvula de la chimenea</t>
+  </si>
+  <si>
+    <t>Marco de la puerta</t>
   </si>
 </sst>
 </file>
@@ -465,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46ECFA37-5137-4E15-AB9D-4A61EFD1B2EC}">
-  <dimension ref="A1:AA2"/>
+  <dimension ref="A1:AB2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -483,11 +486,11 @@
     <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="24" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -525,52 +528,55 @@
         <v>11</v>
       </c>
       <c r="M1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>18</v>
-      </c>
-      <c r="R1" t="s">
-        <v>19</v>
-      </c>
-      <c r="S1" t="s">
-        <v>20</v>
-      </c>
-      <c r="T1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U1" t="s">
+      <c r="X1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z1" t="s">
         <v>22</v>
       </c>
-      <c r="V1" t="s">
-        <v>14</v>
-      </c>
-      <c r="W1" t="s">
+      <c r="AA1" t="s">
         <v>23</v>
       </c>
-      <c r="X1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y1" t="s">
+      <c r="AB1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>26</v>
-      </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>11000000</v>
       </c>
@@ -608,48 +614,51 @@
         <v>5000000</v>
       </c>
       <c r="M2">
+        <v>1000000</v>
+      </c>
+      <c r="N2">
         <v>3500000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>2600</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>80000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>61880</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>32487</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>368900</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>23205</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>29750</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>2618</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>400000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>600000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>1000000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>1200000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>5000000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>250000</v>
       </c>
     </row>

--- a/Aplicacion_Sistema_Experto/Sitio_WEB/static/Costos/Hornilla.xlsx
+++ b/Aplicacion_Sistema_Experto/Sitio_WEB/static/Costos/Hornilla.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\GitHub\Sistema_Experto\Aplicacion_Sistema_Experto\Sitio_WEB\static\Costos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DCE26D3-B526-44D1-9279-30C3028370E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F9C770E-C85B-4126-9290-E5318683FC7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AF386C0A-E7F8-45A3-984F-57BF99206109}"/>
   </bookViews>
@@ -470,8 +470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46ECFA37-5137-4E15-AB9D-4A61EFD1B2EC}">
   <dimension ref="A1:AB2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AA2" sqref="AA2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -611,7 +611,7 @@
         <v>11000000</v>
       </c>
       <c r="L2">
-        <v>5000000</v>
+        <v>600000</v>
       </c>
       <c r="M2">
         <v>1000000</v>

--- a/Aplicacion_Sistema_Experto/Sitio_WEB/static/Costos/Hornilla.xlsx
+++ b/Aplicacion_Sistema_Experto/Sitio_WEB/static/Costos/Hornilla.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\GitHub\Sistema_Experto\Aplicacion_Sistema_Experto\Sitio_WEB\static\Costos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F9C770E-C85B-4126-9290-E5318683FC7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF512DF7-3C8E-4C8F-8CBE-67AF23B6CBEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AF386C0A-E7F8-45A3-984F-57BF99206109}"/>
   </bookViews>
@@ -470,8 +470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46ECFA37-5137-4E15-AB9D-4A61EFD1B2EC}">
   <dimension ref="A1:AB2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -486,6 +486,7 @@
     <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="24" bestFit="1" customWidth="1"/>
   </cols>
@@ -578,40 +579,40 @@
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>11000000</v>
+        <v>14300000</v>
       </c>
       <c r="B2">
-        <v>9000000</v>
+        <v>11700000</v>
       </c>
       <c r="C2">
-        <v>11000000</v>
+        <v>14300000</v>
       </c>
       <c r="D2">
-        <v>13000000</v>
+        <v>16900000</v>
       </c>
       <c r="E2">
-        <v>9000000</v>
+        <v>11700000</v>
       </c>
       <c r="F2">
-        <v>8000000</v>
+        <v>10400000</v>
       </c>
       <c r="G2">
-        <v>7000000</v>
+        <v>9100000</v>
       </c>
       <c r="H2">
-        <v>11000000</v>
+        <v>14300000</v>
       </c>
       <c r="I2">
-        <v>13000000</v>
+        <v>16900000</v>
       </c>
       <c r="J2">
-        <v>9000000</v>
+        <v>11700000</v>
       </c>
       <c r="K2">
-        <v>11000000</v>
+        <v>14300000</v>
       </c>
       <c r="L2">
-        <v>600000</v>
+        <v>780000</v>
       </c>
       <c r="M2">
         <v>1000000</v>
@@ -644,25 +645,26 @@
         <v>2618</v>
       </c>
       <c r="W2">
-        <v>400000</v>
+        <v>520000</v>
       </c>
       <c r="X2">
-        <v>600000</v>
+        <v>780000</v>
       </c>
       <c r="Y2">
-        <v>1000000</v>
+        <v>1300000</v>
       </c>
       <c r="Z2">
         <v>1200000</v>
       </c>
       <c r="AA2">
-        <v>5000000</v>
+        <v>6500000</v>
       </c>
       <c r="AB2">
-        <v>250000</v>
+        <v>325000</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>